--- a/v0.7.1/StructureDefinition-ClaimResponseBundle.xlsx
+++ b/v0.7.1/StructureDefinition-ClaimResponseBundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3089" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3089" uniqueCount="311">
   <si>
     <t>Property</t>
   </si>
@@ -256,6 +256,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Contains a collection of resources</t>
@@ -1506,13 +1510,13 @@
         <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1581,27 +1585,27 @@
         <v>77</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM2" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AN2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AP2" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AN2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AP2" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1612,7 +1616,7 @@
         <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>77</v>
@@ -1621,19 +1625,19 @@
         <v>77</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1683,13 +1687,13 @@
         <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>77</v>
@@ -1718,10 +1722,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1732,7 +1736,7 @@
         <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>77</v>
@@ -1741,16 +1745,16 @@
         <v>77</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1801,19 +1805,19 @@
         <v>77</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>77</v>
@@ -1836,10 +1840,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1850,28 +1854,28 @@
         <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1921,19 +1925,19 @@
         <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>77</v>
@@ -1956,10 +1960,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1970,7 +1974,7 @@
         <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>77</v>
@@ -1982,16 +1986,16 @@
         <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2017,13 +2021,13 @@
         <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>77</v>
@@ -2041,19 +2045,19 @@
         <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>77</v>
@@ -2076,10 +2080,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2090,7 +2094,7 @@
         <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>77</v>
@@ -2099,19 +2103,19 @@
         <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2161,19 +2165,19 @@
         <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>77</v>
@@ -2182,13 +2186,13 @@
         <v>77</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AP7" t="s" s="2">
         <v>77</v>
@@ -2196,10 +2200,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2207,10 +2211,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>77</v>
@@ -2219,19 +2223,19 @@
         <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2239,7 +2243,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -2257,13 +2261,13 @@
         <v>77</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AA8" t="s" s="2">
         <v>77</v>
@@ -2281,19 +2285,19 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>77</v>
@@ -2308,7 +2312,7 @@
         <v>77</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AP8" t="s" s="2">
         <v>77</v>
@@ -2316,10 +2320,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2327,31 +2331,31 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2401,19 +2405,19 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>77</v>
@@ -2422,13 +2426,13 @@
         <v>77</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AP9" t="s" s="2">
         <v>77</v>
@@ -2436,10 +2440,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2450,7 +2454,7 @@
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
@@ -2459,19 +2463,19 @@
         <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2521,19 +2525,19 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>77</v>
@@ -2556,10 +2560,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2579,19 +2583,19 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2641,7 +2645,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2653,7 +2657,7 @@
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>77</v>
@@ -2676,10 +2680,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2690,7 +2694,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -2702,13 +2706,13 @@
         <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2759,13 +2763,13 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>77</v>
@@ -2777,7 +2781,7 @@
         <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>77</v>
@@ -2794,14 +2798,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2820,16 +2824,16 @@
         <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2879,7 +2883,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -2891,13 +2895,13 @@
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>77</v>
@@ -2914,14 +2918,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2934,25 +2938,25 @@
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -3001,7 +3005,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3013,13 +3017,13 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3036,10 +3040,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3047,10 +3051,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
@@ -3059,16 +3063,16 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3119,19 +3123,19 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>77</v>
@@ -3154,10 +3158,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3165,10 +3169,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>77</v>
@@ -3177,16 +3181,16 @@
         <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3237,19 +3241,19 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>77</v>
@@ -3272,10 +3276,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3283,28 +3287,28 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3343,19 +3347,19 @@
         <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3367,7 +3371,7 @@
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
@@ -3390,10 +3394,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3404,7 +3408,7 @@
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
@@ -3416,13 +3420,13 @@
         <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3473,13 +3477,13 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>77</v>
@@ -3491,7 +3495,7 @@
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3508,14 +3512,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3534,16 +3538,16 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3593,7 +3597,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3605,13 +3609,13 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -3628,14 +3632,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3648,25 +3652,25 @@
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3715,7 +3719,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3727,13 +3731,13 @@
         <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -3750,10 +3754,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3773,16 +3777,16 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3833,7 +3837,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3845,7 +3849,7 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>77</v>
@@ -3868,10 +3872,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3879,31 +3883,31 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3953,19 +3957,19 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>77</v>
@@ -3988,10 +3992,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3999,28 +4003,28 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4071,13 +4075,13 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
@@ -4106,10 +4110,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4129,16 +4133,16 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4189,19 +4193,19 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>77</v>
@@ -4224,10 +4228,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4238,7 +4242,7 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4250,13 +4254,13 @@
         <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4307,13 +4311,13 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>77</v>
@@ -4325,7 +4329,7 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4342,14 +4346,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4368,16 +4372,16 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4427,7 +4431,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4439,13 +4443,13 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4462,14 +4466,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4482,25 +4486,25 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4549,7 +4553,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4561,13 +4565,13 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -4584,10 +4588,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4598,7 +4602,7 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -4607,19 +4611,19 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4645,13 +4649,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -4669,19 +4673,19 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
@@ -4704,10 +4708,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4718,7 +4722,7 @@
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -4727,19 +4731,19 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4789,19 +4793,19 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>77</v>
@@ -4824,10 +4828,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4847,16 +4851,16 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4907,19 +4911,19 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
@@ -4942,10 +4946,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4956,7 +4960,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -4968,13 +4972,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5025,13 +5029,13 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
@@ -5043,7 +5047,7 @@
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -5060,14 +5064,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5086,16 +5090,16 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5145,7 +5149,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5157,13 +5161,13 @@
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5180,14 +5184,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5200,25 +5204,25 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5267,7 +5271,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5279,13 +5283,13 @@
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5302,10 +5306,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5313,10 +5317,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5325,16 +5329,16 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5361,13 +5365,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5385,19 +5389,19 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
@@ -5420,10 +5424,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5431,10 +5435,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -5443,19 +5447,19 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5505,19 +5509,19 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
@@ -5540,10 +5544,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5554,7 +5558,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5563,16 +5567,16 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5623,19 +5627,19 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
@@ -5658,10 +5662,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5672,7 +5676,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -5681,16 +5685,16 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5741,19 +5745,19 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
@@ -5776,10 +5780,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5790,7 +5794,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
@@ -5799,16 +5803,16 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5859,19 +5863,19 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
@@ -5894,10 +5898,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5908,7 +5912,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
@@ -5917,16 +5921,16 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5977,19 +5981,19 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
@@ -6012,10 +6016,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6035,16 +6039,16 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6095,19 +6099,19 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
@@ -6130,10 +6134,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6144,7 +6148,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -6156,13 +6160,13 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6213,13 +6217,13 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>77</v>
@@ -6231,7 +6235,7 @@
         <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -6248,14 +6252,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6274,16 +6278,16 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6333,7 +6337,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6345,13 +6349,13 @@
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -6368,14 +6372,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6388,25 +6392,25 @@
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6455,7 +6459,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6467,13 +6471,13 @@
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6490,10 +6494,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6501,10 +6505,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -6513,16 +6517,16 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6573,19 +6577,19 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>77</v>
@@ -6608,10 +6612,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6622,7 +6626,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -6631,16 +6635,16 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6691,19 +6695,19 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>77</v>
@@ -6726,10 +6730,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6740,7 +6744,7 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
@@ -6749,19 +6753,19 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6811,19 +6815,19 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
@@ -6846,10 +6850,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6860,7 +6864,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -6869,19 +6873,19 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6931,19 +6935,19 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
@@ -6966,10 +6970,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6980,7 +6984,7 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>77</v>
@@ -6989,19 +6993,19 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7051,13 +7055,13 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>77</v>
@@ -7086,41 +7090,41 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7171,7 +7175,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7183,7 +7187,7 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
@@ -7206,10 +7210,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7220,7 +7224,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7232,13 +7236,13 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7289,13 +7293,13 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
@@ -7307,7 +7311,7 @@
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
@@ -7324,14 +7328,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7350,16 +7354,16 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7409,7 +7413,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7421,13 +7425,13 @@
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
@@ -7444,14 +7448,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7464,25 +7468,25 @@
         <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7531,7 +7535,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7543,13 +7547,13 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
@@ -7566,10 +7570,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7589,16 +7593,16 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7649,7 +7653,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7661,7 +7665,7 @@
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
@@ -7684,10 +7688,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7698,7 +7702,7 @@
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
@@ -7707,19 +7711,19 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7769,19 +7773,19 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
@@ -7804,21 +7808,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
@@ -7830,13 +7834,13 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7887,25 +7891,25 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -7922,10 +7926,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7936,7 +7940,7 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
@@ -7945,16 +7949,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8005,19 +8009,19 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
@@ -8040,10 +8044,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8054,7 +8058,7 @@
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>77</v>
@@ -8066,13 +8070,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8123,13 +8127,13 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>77</v>
@@ -8141,7 +8145,7 @@
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8158,14 +8162,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8184,16 +8188,16 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8243,7 +8247,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8255,13 +8259,13 @@
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8278,14 +8282,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8298,25 +8302,25 @@
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8365,7 +8369,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8377,13 +8381,13 @@
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>77</v>
@@ -8400,10 +8404,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8414,7 +8418,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>77</v>
@@ -8423,19 +8427,19 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8461,13 +8465,13 @@
         <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>77</v>
@@ -8485,19 +8489,19 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>77</v>
@@ -8520,10 +8524,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8534,7 +8538,7 @@
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>77</v>
@@ -8543,19 +8547,19 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8605,19 +8609,19 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>77</v>
@@ -8640,10 +8644,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8654,7 +8658,7 @@
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>77</v>
@@ -8663,16 +8667,16 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8723,19 +8727,19 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>77</v>
@@ -8758,10 +8762,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8772,7 +8776,7 @@
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>77</v>
@@ -8784,13 +8788,13 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8841,13 +8845,13 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>77</v>
@@ -8859,7 +8863,7 @@
         <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>77</v>
@@ -8876,14 +8880,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -8902,16 +8906,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8961,7 +8965,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -8973,13 +8977,13 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>77</v>
@@ -8996,14 +9000,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9016,25 +9020,25 @@
         <v>77</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -9083,7 +9087,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9095,13 +9099,13 @@
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>77</v>
@@ -9118,10 +9122,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9129,10 +9133,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>77</v>
@@ -9141,16 +9145,16 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9177,13 +9181,13 @@
         <v>77</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>77</v>
@@ -9201,19 +9205,19 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>77</v>
@@ -9236,10 +9240,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9247,10 +9251,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>77</v>
@@ -9259,19 +9263,19 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9321,19 +9325,19 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>77</v>
@@ -9356,10 +9360,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9370,7 +9374,7 @@
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>77</v>
@@ -9379,16 +9383,16 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9439,19 +9443,19 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>77</v>
@@ -9474,10 +9478,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9488,7 +9492,7 @@
         <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>77</v>
@@ -9497,16 +9501,16 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9557,19 +9561,19 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>77</v>
@@ -9592,10 +9596,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9606,7 +9610,7 @@
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>77</v>
@@ -9615,16 +9619,16 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9675,19 +9679,19 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>77</v>
@@ -9710,10 +9714,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9724,7 +9728,7 @@
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>77</v>
@@ -9733,16 +9737,16 @@
         <v>77</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9793,19 +9797,19 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>77</v>
@@ -9828,10 +9832,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9842,7 +9846,7 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>77</v>
@@ -9851,16 +9855,16 @@
         <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9911,19 +9915,19 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>77</v>
@@ -9946,10 +9950,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9960,7 +9964,7 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>77</v>
@@ -9972,13 +9976,13 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10029,13 +10033,13 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>77</v>
@@ -10047,7 +10051,7 @@
         <v>77</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>77</v>
@@ -10064,14 +10068,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10090,16 +10094,16 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10149,7 +10153,7 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10161,13 +10165,13 @@
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>77</v>
@@ -10184,14 +10188,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10204,25 +10208,25 @@
         <v>77</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -10271,7 +10275,7 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10283,13 +10287,13 @@
         <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>77</v>
@@ -10306,10 +10310,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10317,10 +10321,10 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>77</v>
@@ -10329,16 +10333,16 @@
         <v>77</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10389,19 +10393,19 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>77</v>
@@ -10424,10 +10428,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10438,7 +10442,7 @@
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>77</v>
@@ -10447,16 +10451,16 @@
         <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10507,19 +10511,19 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>77</v>
@@ -10542,10 +10546,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10556,7 +10560,7 @@
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>77</v>
@@ -10565,19 +10569,19 @@
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10627,19 +10631,19 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>77</v>
@@ -10662,10 +10666,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10676,7 +10680,7 @@
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>77</v>
@@ -10685,19 +10689,19 @@
         <v>77</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10747,19 +10751,19 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>77</v>
@@ -10782,10 +10786,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10796,7 +10800,7 @@
         <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>77</v>
@@ -10805,19 +10809,19 @@
         <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -10867,13 +10871,13 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>77</v>
@@ -10902,10 +10906,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10916,7 +10920,7 @@
         <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>77</v>
@@ -10925,22 +10929,22 @@
         <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>77</v>
@@ -10989,19 +10993,19 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>77</v>
